--- a/meslek_gruplarina_gore_kazanc.xlsx
+++ b/meslek_gruplarina_gore_kazanc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamze.kazel\Documents\GitHub\emu660-spring2025-gkazel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2600AC4-6F15-46A8-98CA-EC5623683ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271F9799-F879-4CDD-B0DC-8FF730BDF06F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12048" windowHeight="5100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,18 +43,12 @@
     <t>Yöneticiler</t>
   </si>
   <si>
-    <t xml:space="preserve">Teknisyenler, teknikerler ve yardımcı profesyonel meslek mensupları </t>
-  </si>
-  <si>
     <t xml:space="preserve">Büro hizmetlerinde çalışan elemanlar </t>
   </si>
   <si>
     <t xml:space="preserve">Hizmet ve satış elemanları </t>
   </si>
   <si>
-    <t xml:space="preserve">Nitelikli tarım, ormancılık ve su ürünleri çalışanları </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sanatkarlar ve ilgili işlerde çalışanlar </t>
   </si>
   <si>
@@ -65,6 +59,12 @@
   </si>
   <si>
     <t>yillik_ort_kazanc</t>
+  </si>
+  <si>
+    <t>Teknisyenler, teknikerler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarım, ormancılık ve su ürünleri çalışanları </t>
   </si>
 </sst>
 </file>
@@ -495,12 +495,12 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.21875" style="3" bestFit="1" customWidth="1"/>
@@ -517,7 +517,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2"/>
     </row>
@@ -554,7 +554,7 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -582,7 +582,7 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
@@ -596,7 +596,7 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -638,7 +638,7 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -750,7 +750,7 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -764,7 +764,7 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
